--- a/Kriging/Article/GaussianModel/content/results/metrics_8_5.xlsx
+++ b/Kriging/Article/GaussianModel/content/results/metrics_8_5.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_17</t>
+          <t>model_8_5_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9993422065870011</v>
+        <v>0.9990180560510308</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7936647507607757</v>
+        <v>0.7252934792379164</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9977275888320167</v>
+        <v>0.9982796619301838</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9979701141512018</v>
+        <v>0.9976115791992327</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9978364160623709</v>
+        <v>0.9979917744000357</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0003271600247300885</v>
+        <v>0.0004824381960692756</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1224895171670667</v>
+        <v>0.1630776574281803</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001288492725213035</v>
+        <v>0.0008588402429887771</v>
       </c>
       <c r="J2" t="n">
-        <v>0.000688987012843114</v>
+        <v>0.001018627522599846</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0009887389834876939</v>
+        <v>0.0009387343127448427</v>
       </c>
       <c r="L2" t="n">
-        <v>0.007022430980009379</v>
+        <v>0.004777550625967846</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01808756547272431</v>
+        <v>0.02196447577497072</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000092568852543</v>
+        <v>1.000075118111151</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01817111125436004</v>
+        <v>0.02214090010131023</v>
       </c>
       <c r="P2" t="n">
-        <v>3534.050122269015</v>
+        <v>3533.273315472875</v>
       </c>
       <c r="Q2" t="n">
-        <v>9487.376937715022</v>
+        <v>8522.293189800526</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_16</t>
+          <t>model_8_5_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9993338339039995</v>
+        <v>0.999023013523491</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7936626543336999</v>
+        <v>0.7241834892948753</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9977477876954921</v>
+        <v>0.9980413486311073</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9979823325409716</v>
+        <v>0.9973016574987439</v>
       </c>
       <c r="F3" t="n">
-        <v>0.997853485505824</v>
+        <v>0.9977231329220436</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0003313242609837936</v>
+        <v>0.000480002543735686</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1224907616967399</v>
+        <v>0.1637365954074383</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001277039653246023</v>
+        <v>0.0009778128189477926</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0006848398279783829</v>
+        <v>0.001150804722642437</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0009809383967506102</v>
+        <v>0.001064309334406842</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007157333056462131</v>
+        <v>0.005067317996011077</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01820231471499692</v>
+        <v>0.02190896035268871</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000093747109489</v>
+        <v>1.000074738867542</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0182863905190479</v>
+        <v>0.02208493876485855</v>
       </c>
       <c r="P3" t="n">
-        <v>3534.024826043375</v>
+        <v>3533.283438309254</v>
       </c>
       <c r="Q3" t="n">
-        <v>9487.351641489382</v>
+        <v>8522.303312636905</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_19</t>
+          <t>model_8_5_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9993512052313127</v>
+        <v>0.9990000287145872</v>
       </c>
       <c r="C4" t="n">
-        <v>0.793660422776195</v>
+        <v>0.7232288904762438</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9976851678356201</v>
+        <v>0.997778703751553</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9979418889438287</v>
+        <v>0.9969581326100839</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9977996133858646</v>
+        <v>0.9974261709536294</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0003226844604612299</v>
+        <v>0.0004912951941524553</v>
       </c>
       <c r="H4" t="n">
-        <v>0.122492086445673</v>
+        <v>0.1643032865026998</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001312546094613536</v>
+        <v>0.00110893239139339</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0006985672566417201</v>
+        <v>0.001297313204805478</v>
       </c>
       <c r="K4" t="n">
-        <v>0.001005557485569158</v>
+        <v>0.001203122617802701</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006792236061891923</v>
+        <v>0.00536768945413451</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01796342006582349</v>
+        <v>0.022165179768106</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000091302506359</v>
+        <v>1.000076497191356</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01804639242451451</v>
+        <v>0.02234321620060935</v>
       </c>
       <c r="P4" t="n">
-        <v>3534.077671229637</v>
+        <v>3533.236930801475</v>
       </c>
       <c r="Q4" t="n">
-        <v>9487.404486675645</v>
+        <v>8522.256805129125</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_15</t>
+          <t>model_8_5_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9993221810065306</v>
+        <v>0.9989615826640731</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7936586749275409</v>
+        <v>0.7224526267457347</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9977668887661338</v>
+        <v>0.997518237251765</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9979944605502189</v>
+        <v>0.9965934009299822</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9978698343182266</v>
+        <v>0.9971206961325082</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0003371199441706085</v>
+        <v>0.0005101840963911721</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1224931240441372</v>
+        <v>0.1647641101859771</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001266209047010441</v>
+        <v>0.001238964456539855</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0006807233202112469</v>
+        <v>0.001452866082085916</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0009734671321164442</v>
+        <v>0.001345915188652882</v>
       </c>
       <c r="L5" t="n">
-        <v>0.007306669388754065</v>
+        <v>0.005614955365405205</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01836082634770583</v>
+        <v>0.02258725517612027</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000095386978977</v>
+        <v>1.000079438290692</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01844563431100029</v>
+        <v>0.02276868182700564</v>
       </c>
       <c r="P5" t="n">
-        <v>3533.990143547031</v>
+        <v>3533.16147784813</v>
       </c>
       <c r="Q5" t="n">
-        <v>9487.316958993038</v>
+        <v>8522.181352175781</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_18</t>
+          <t>model_8_5_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9993476252780198</v>
+        <v>0.9989226050067826</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7936548380110807</v>
+        <v>0.7218287830773134</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9977056344185178</v>
+        <v>0.997280667858106</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9979563464250355</v>
+        <v>0.9962659288986416</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9978176852774138</v>
+        <v>0.996844446005576</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0003244649854477793</v>
+        <v>0.0005293341819840836</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1224954018034942</v>
+        <v>0.1651344507361953</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001300941221540732</v>
+        <v>0.001357565654383877</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0006936600758779344</v>
+        <v>0.001592528248776971</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0009972987887979035</v>
+        <v>0.001475046832555881</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006901192862277774</v>
+        <v>0.005763040635218703</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01801291163159858</v>
+        <v>0.02300726367876205</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000091806300045</v>
+        <v>1.000082420057621</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0180961125899623</v>
+        <v>0.02319206394611314</v>
       </c>
       <c r="P6" t="n">
-        <v>3534.066665861461</v>
+        <v>3533.087781203164</v>
       </c>
       <c r="Q6" t="n">
-        <v>9487.393481307468</v>
+        <v>8522.107655530815</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_14</t>
+          <t>model_8_5_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9993061018750152</v>
+        <v>0.9988836639523375</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7936525991941983</v>
+        <v>0.7213905343765856</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9977831349336337</v>
+        <v>0.9970536220269727</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9980053759792906</v>
+        <v>0.9959814208359861</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9978839679722289</v>
+        <v>0.9965934149638935</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0003451170584017287</v>
+        <v>0.0005484662842586234</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1224967308619074</v>
+        <v>0.1653946140963055</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001256997215572955</v>
+        <v>0.001470913199381792</v>
       </c>
       <c r="J7" t="n">
-        <v>0.000677018388293748</v>
+        <v>0.001713866893512179</v>
       </c>
       <c r="K7" t="n">
-        <v>0.000967008175545277</v>
+        <v>0.001592389949980305</v>
       </c>
       <c r="L7" t="n">
-        <v>0.007472588941718479</v>
+        <v>0.005818545052984132</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01857732646000841</v>
+        <v>0.0234193570419562</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000097649736136</v>
+        <v>1.000085399024454</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01866313442914301</v>
+        <v>0.02360746734933444</v>
       </c>
       <c r="P7" t="n">
-        <v>3533.943253797534</v>
+        <v>3533.016769498258</v>
       </c>
       <c r="Q7" t="n">
-        <v>9487.270069243541</v>
+        <v>8522.036643825908</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_20</t>
+          <t>model_8_5_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9993528527048035</v>
+        <v>0.9988454521298047</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7936513780310044</v>
+        <v>0.7210094080306504</v>
       </c>
       <c r="D8" t="n">
-        <v>0.997662902886062</v>
+        <v>0.996845082642296</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9979275310346112</v>
+        <v>0.9957296421248616</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9977804712050312</v>
+        <v>0.99636719710332</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0003218650733142585</v>
+        <v>0.0005672401081114288</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1224974557971308</v>
+        <v>0.1656208671590535</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001325170669750768</v>
+        <v>0.00157502181556068</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0007034406405260037</v>
+        <v>0.00182124693503321</v>
       </c>
       <c r="K8" t="n">
-        <v>0.001014305295205663</v>
+        <v>0.001698134278645336</v>
       </c>
       <c r="L8" t="n">
-        <v>0.006695093403231068</v>
+        <v>0.005847444094581809</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01794059846588899</v>
+        <v>0.02381680306236395</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000091070663462</v>
+        <v>1.000088322205492</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01802346541247203</v>
+        <v>0.02400810575853968</v>
       </c>
       <c r="P8" t="n">
-        <v>3534.082756254421</v>
+        <v>3532.949455745558</v>
       </c>
       <c r="Q8" t="n">
-        <v>9487.409571700429</v>
+        <v>8521.969330073209</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_21</t>
+          <t>model_8_5_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9993533358076874</v>
+        <v>0.9988070604933992</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7936432640562543</v>
+        <v>0.7206175198836937</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9976409256408018</v>
+        <v>0.9966580780857117</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9979142439793508</v>
+        <v>0.9954944341887718</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9977619080547168</v>
+        <v>0.9961600381075417</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0003216247973425993</v>
+        <v>0.0005861022761924811</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1225022726030479</v>
+        <v>0.1658535088917734</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00133763211204472</v>
+        <v>0.001668379651229593</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0007079505534941605</v>
+        <v>0.001921559776538382</v>
       </c>
       <c r="K9" t="n">
-        <v>0.001022788492946689</v>
+        <v>0.001794969642926258</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006608157883224896</v>
+        <v>0.005897688651634259</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01793390078434135</v>
+        <v>0.02420954927693783</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000091002678166</v>
+        <v>1.000091259142182</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01801673679458634</v>
+        <v>0.02440400661186017</v>
       </c>
       <c r="P9" t="n">
-        <v>3534.084249834934</v>
+        <v>3532.88403250173</v>
       </c>
       <c r="Q9" t="n">
-        <v>9487.411065280941</v>
+        <v>8521.903906829381</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_22</t>
+          <t>model_8_5_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9993532255708359</v>
+        <v>0.9987654739869148</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7936417205534583</v>
+        <v>0.720227876492724</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9976215830928969</v>
+        <v>0.996469199259656</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9979012087489925</v>
+        <v>0.9952714456053857</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9977450590892062</v>
+        <v>0.9959574523200143</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0003216796247251107</v>
+        <v>0.0006065341136615971</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1225031888929835</v>
+        <v>0.1660848180403711</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001348599639670702</v>
+        <v>0.001762673173945416</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0007123749916622355</v>
+        <v>0.002016661237800832</v>
       </c>
       <c r="K10" t="n">
-        <v>0.001030488323187648</v>
+        <v>0.001889667285476882</v>
       </c>
       <c r="L10" t="n">
-        <v>0.006528818320304215</v>
+        <v>0.005984195712299465</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01793542931532754</v>
+        <v>0.02462791330303071</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000091018191393</v>
+        <v>1.000094440484477</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01801827238579942</v>
+        <v>0.02482573104555959</v>
       </c>
       <c r="P10" t="n">
-        <v>3534.083908923971</v>
+        <v>3532.815499168798</v>
       </c>
       <c r="Q10" t="n">
-        <v>9487.410724369978</v>
+        <v>8521.835373496449</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_13</t>
+          <t>model_8_5_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9992838583253468</v>
+        <v>0.9987232183221474</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7936334101260296</v>
+        <v>0.7198292318536466</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9977918609818783</v>
+        <v>0.9962908728541372</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9980146425021232</v>
+        <v>0.9950556448447976</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9978928240901375</v>
+        <v>0.995763781423384</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0003561801066411326</v>
+        <v>0.0006272947148196555</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1225081223216969</v>
+        <v>0.1663214707186792</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00125204940954141</v>
+        <v>0.001851698637099547</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0006738731306972876</v>
+        <v>0.002108697194807404</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0009629610069255205</v>
+        <v>0.001980197709972085</v>
       </c>
       <c r="L11" t="n">
-        <v>0.007662883886217538</v>
+        <v>0.006075440890349153</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01887273447704737</v>
+        <v>0.02504585224782051</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000100779989235</v>
+        <v>1.000097673016972</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01895990692465323</v>
+        <v>0.02524702698359344</v>
       </c>
       <c r="P11" t="n">
-        <v>3533.880148075028</v>
+        <v>3532.748188176361</v>
       </c>
       <c r="Q11" t="n">
-        <v>9487.206963521036</v>
+        <v>8521.768062504012</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_23</t>
+          <t>model_8_5_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9993521895127367</v>
+        <v>0.9986861300661419</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7936316103367378</v>
+        <v>0.7194523746417792</v>
       </c>
       <c r="D12" t="n">
-        <v>0.997601570246283</v>
+        <v>0.9961390386825366</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9978887408361046</v>
+        <v>0.994866748934716</v>
       </c>
       <c r="F12" t="n">
-        <v>0.997728015784456</v>
+        <v>0.9955965305582222</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0003221949184125378</v>
+        <v>0.0006455165199862096</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1225091907543674</v>
+        <v>0.1665451894390276</v>
       </c>
       <c r="I12" t="n">
-        <v>0.001359947237163695</v>
+        <v>0.001927498445939117</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0007166068700519296</v>
+        <v>0.002189258615497496</v>
       </c>
       <c r="K12" t="n">
-        <v>0.001038276964765572</v>
+        <v>0.002058378232103894</v>
       </c>
       <c r="L12" t="n">
-        <v>0.006458453231507367</v>
+        <v>0.006134644477564859</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01794978881247737</v>
+        <v>0.02540701714066824</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000091163992047</v>
+        <v>1.000100510245858</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01803269820892413</v>
+        <v>0.02561109284587795</v>
       </c>
       <c r="P12" t="n">
-        <v>3534.080707717755</v>
+        <v>3532.690919510925</v>
       </c>
       <c r="Q12" t="n">
-        <v>9487.407523163762</v>
+        <v>8521.710793838576</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_24</t>
+          <t>model_8_5_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9993506113402619</v>
+        <v>0.9986543320423422</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7936201066301002</v>
+        <v>0.7190737853103808</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9975821403748226</v>
+        <v>0.9960169064970603</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9978768732548418</v>
+        <v>0.9946974361947989</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9977115518262093</v>
+        <v>0.9954540729651338</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0003229798380175198</v>
+        <v>0.0006611391848609393</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1225160198515617</v>
+        <v>0.1667699364203533</v>
       </c>
       <c r="I13" t="n">
-        <v>0.001370964278613438</v>
+        <v>0.001988470203578817</v>
       </c>
       <c r="J13" t="n">
-        <v>0.000720634982947403</v>
+        <v>0.002261468092466975</v>
       </c>
       <c r="K13" t="n">
-        <v>0.001045800850045847</v>
+        <v>0.002124969271848404</v>
       </c>
       <c r="L13" t="n">
-        <v>0.006395538027678875</v>
+        <v>0.006171342069845502</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01797163982550062</v>
+        <v>0.02571262695371555</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000091386082466</v>
+        <v>1.000102942775219</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01805465015095107</v>
+        <v>0.02591915739565297</v>
       </c>
       <c r="P13" t="n">
-        <v>3534.075841315377</v>
+        <v>3532.643092346334</v>
       </c>
       <c r="Q13" t="n">
-        <v>9487.402656761384</v>
+        <v>8521.662966673985</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9992543535685655</v>
+        <v>0.998629222607759</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7935990478576675</v>
+        <v>0.7187129189565518</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9977949587192736</v>
+        <v>0.9959180135268753</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9980190883190241</v>
+        <v>0.9945637601069048</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9978963966238142</v>
+        <v>0.995340282748522</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0003708545876673988</v>
+        <v>0.0006734756836370674</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1225285212485693</v>
+        <v>0.166984162276601</v>
       </c>
       <c r="I14" t="n">
-        <v>0.001250292943918198</v>
+        <v>0.002037840303580575</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0006723641246081447</v>
+        <v>0.002318479043886698</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0009613283902035186</v>
+        <v>0.002178159899828622</v>
       </c>
       <c r="L14" t="n">
-        <v>0.007871413004021667</v>
+        <v>0.006185250956912016</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01925758519823809</v>
+        <v>0.02595141005103706</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000104932085357</v>
+        <v>1.000104863631597</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01934653525678686</v>
+        <v>0.02615985846031036</v>
       </c>
       <c r="P14" t="n">
-        <v>3533.799401038353</v>
+        <v>3532.606117334478</v>
       </c>
       <c r="Q14" t="n">
-        <v>9487.126216484359</v>
+        <v>8521.625991662129</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_11</t>
+          <t>model_8_5_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9992156340503625</v>
+        <v>0.9986092845816101</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7935529043255563</v>
+        <v>0.7183912132868742</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9977878051981179</v>
+        <v>0.9958344269591886</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9980204240694582</v>
+        <v>0.9944626032737445</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9978924523956388</v>
+        <v>0.9952495008971179</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0003901121209331573</v>
+        <v>0.0006832714213454306</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1225559140425274</v>
+        <v>0.1671751406590829</v>
       </c>
       <c r="I15" t="n">
-        <v>0.001254349102459666</v>
+        <v>0.002079569025023265</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0006719107421176403</v>
+        <v>0.002361620995389975</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0009631308680685968</v>
+        <v>0.002220595390586764</v>
       </c>
       <c r="L15" t="n">
-        <v>0.008104346276171589</v>
+        <v>0.006191877848584125</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01975125618620642</v>
+        <v>0.02613946099952007</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000110380941032</v>
+        <v>1.000106388878396</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01984248649239951</v>
+        <v>0.0263494198824438</v>
       </c>
       <c r="P15" t="n">
-        <v>3533.698152741171</v>
+        <v>3532.577236763027</v>
       </c>
       <c r="Q15" t="n">
-        <v>9487.024968187179</v>
+        <v>8521.597111090678</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_10</t>
+          <t>model_8_5_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9991656218842698</v>
+        <v>0.9985921688207695</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7934997996292538</v>
+        <v>0.7180755065395987</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9977704951243395</v>
+        <v>0.9957625794129626</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9980152355247697</v>
+        <v>0.9943776373792833</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9978797870044342</v>
+        <v>0.9951723749064011</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0004149861637136949</v>
+        <v>0.0006916805538554651</v>
       </c>
       <c r="H16" t="n">
-        <v>0.122587439284256</v>
+        <v>0.167362557822087</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001264164185421166</v>
+        <v>0.002115437302974803</v>
       </c>
       <c r="J16" t="n">
-        <v>0.00067367184602804</v>
+        <v>0.002397857741675496</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0009689188413509162</v>
+        <v>0.00225664752232515</v>
       </c>
       <c r="L16" t="n">
-        <v>0.008362009750440779</v>
+        <v>0.006193375757568647</v>
       </c>
       <c r="M16" t="n">
-        <v>0.02037120918634176</v>
+        <v>0.02629982041489001</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000117418969594</v>
+        <v>1.000107698223625</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0204653030320229</v>
+        <v>0.0265110673459383</v>
       </c>
       <c r="P16" t="n">
-        <v>3533.574530757477</v>
+        <v>3532.552772672612</v>
       </c>
       <c r="Q16" t="n">
-        <v>9486.901346203484</v>
+        <v>8521.572647000263</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_9</t>
+          <t>model_8_5_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9991004265642631</v>
+        <v>0.9985791193398564</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7933570420853782</v>
+        <v>0.7177948704769815</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9977281803847901</v>
+        <v>0.995702806058775</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9980105636294616</v>
+        <v>0.9943165325573692</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9978517986611328</v>
+        <v>0.9951125807880269</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0004474116974514773</v>
+        <v>0.0006980918852129425</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1226721863291053</v>
+        <v>0.1675291555117032</v>
       </c>
       <c r="I17" t="n">
-        <v>0.00128815730552505</v>
+        <v>0.002145277811032754</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0006752575880019036</v>
+        <v>0.002423918079680127</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0009817092700576961</v>
+        <v>0.002284597963062076</v>
       </c>
       <c r="L17" t="n">
-        <v>0.008740107485096222</v>
+        <v>0.006184230756037826</v>
       </c>
       <c r="M17" t="n">
-        <v>0.02115210858168701</v>
+        <v>0.02642142852332066</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000126593667675</v>
+        <v>1.000108696500929</v>
       </c>
       <c r="O17" t="n">
-        <v>0.02124980937217569</v>
+        <v>0.02663365224201584</v>
       </c>
       <c r="P17" t="n">
-        <v>3533.424062727702</v>
+        <v>3532.534319646319</v>
       </c>
       <c r="Q17" t="n">
-        <v>9486.750878173709</v>
+        <v>8521.554193973971</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_8</t>
+          <t>model_8_5_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9990178574416151</v>
+        <v>0.9985682745094896</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7932110976056035</v>
+        <v>0.7175311289465569</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9976732020580849</v>
+        <v>0.9956524661409681</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9979893844043071</v>
+        <v>0.9942668907097988</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9978098288633672</v>
+        <v>0.9950630544015868</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0004884782628406329</v>
+        <v>0.0007034200512496794</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1227588252767728</v>
+        <v>0.1676857238772042</v>
       </c>
       <c r="I18" t="n">
-        <v>0.001319330877896977</v>
+        <v>0.00217040888730193</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0006824462735539436</v>
+        <v>0.002445089622061477</v>
       </c>
       <c r="K18" t="n">
-        <v>0.001000889101474587</v>
+        <v>0.002307748807438516</v>
       </c>
       <c r="L18" t="n">
-        <v>0.009213416812194656</v>
+        <v>0.006170443686125435</v>
       </c>
       <c r="M18" t="n">
-        <v>0.02210154435419916</v>
+        <v>0.02652206725068164</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000138213317231</v>
+        <v>1.000109526123815</v>
       </c>
       <c r="O18" t="n">
-        <v>0.02220363055265483</v>
+        <v>0.02673509932555431</v>
       </c>
       <c r="P18" t="n">
-        <v>3533.248431170478</v>
+        <v>3532.519112664294</v>
       </c>
       <c r="Q18" t="n">
-        <v>9486.575246616485</v>
+        <v>8521.538986991944</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_7</t>
+          <t>model_8_5_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9989130061589169</v>
+        <v>0.9985598899330488</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7930346499324351</v>
+        <v>0.7172884252650937</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9975918453327485</v>
+        <v>0.9956093022785071</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9979584001812262</v>
+        <v>0.9942322194032157</v>
       </c>
       <c r="F19" t="n">
-        <v>0.997747855292644</v>
+        <v>0.9950241868856164</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0005406270797224074</v>
+        <v>0.0007075394716475038</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1228635722377082</v>
+        <v>0.1678298032667739</v>
       </c>
       <c r="I19" t="n">
-        <v>0.001365461415459965</v>
+        <v>0.002191957478695017</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0006929629867565172</v>
+        <v>0.002459876441502443</v>
       </c>
       <c r="K19" t="n">
-        <v>0.001029210482611802</v>
+        <v>0.002325917219838628</v>
       </c>
       <c r="L19" t="n">
-        <v>0.009739599425044985</v>
+        <v>0.006149142940189437</v>
       </c>
       <c r="M19" t="n">
-        <v>0.02325138876975755</v>
+        <v>0.02659961412591363</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000152968653382</v>
+        <v>1.000110167538781</v>
       </c>
       <c r="O19" t="n">
-        <v>0.02335878605613171</v>
+        <v>0.02681326907726024</v>
       </c>
       <c r="P19" t="n">
-        <v>3533.0455616668</v>
+        <v>3532.507434279377</v>
       </c>
       <c r="Q19" t="n">
-        <v>9486.372377112808</v>
+        <v>8521.527308607028</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_6</t>
+          <t>model_8_5_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9987809412178517</v>
+        <v>0.9985522763485188</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7927911498490144</v>
+        <v>0.7170575373807957</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9974807384716208</v>
+        <v>0.9955710610821559</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9979127178855701</v>
+        <v>0.994201587415121</v>
       </c>
       <c r="F20" t="n">
-        <v>0.997661952226145</v>
+        <v>0.9949897928149469</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0006063108772963636</v>
+        <v>0.000711280096547855</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1230081244058826</v>
+        <v>0.1679668682887305</v>
       </c>
       <c r="I20" t="n">
-        <v>0.001428460745995396</v>
+        <v>0.00221104853930841</v>
       </c>
       <c r="J20" t="n">
-        <v>0.000708468542619446</v>
+        <v>0.002472940549022864</v>
       </c>
       <c r="K20" t="n">
-        <v>0.001068467434547663</v>
+        <v>0.002341994544165637</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01032110871088197</v>
+        <v>0.006129058510814204</v>
       </c>
       <c r="M20" t="n">
-        <v>0.02462338070404557</v>
+        <v>0.02666983495539211</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000171553667786</v>
+        <v>1.000110749973339</v>
       </c>
       <c r="O20" t="n">
-        <v>0.02473711516933532</v>
+        <v>0.02688405393852636</v>
       </c>
       <c r="P20" t="n">
-        <v>3532.81623540919</v>
+        <v>3532.496888516826</v>
       </c>
       <c r="Q20" t="n">
-        <v>9486.143050855197</v>
+        <v>8521.516762844478</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_5</t>
+          <t>model_8_5_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9986145700035375</v>
+        <v>0.9985453917399274</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7924597038828431</v>
+        <v>0.7168426437702442</v>
       </c>
       <c r="D21" t="n">
-        <v>0.997327027490267</v>
+        <v>0.9955378936957695</v>
       </c>
       <c r="E21" t="n">
-        <v>0.997852211774516</v>
+        <v>0.9941736462508416</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9975441255726972</v>
+        <v>0.994959335437444</v>
       </c>
       <c r="G21" t="n">
-        <v>0.000689057237344661</v>
+        <v>0.0007146625687887156</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1232048850491221</v>
+        <v>0.1680944384188745</v>
       </c>
       <c r="I21" t="n">
-        <v>0.001515617280010977</v>
+        <v>0.00222760661395848</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0007290056209672942</v>
+        <v>0.002484857058433336</v>
       </c>
       <c r="K21" t="n">
-        <v>0.001122313187204425</v>
+        <v>0.002356231682333141</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01097175456898596</v>
+        <v>0.006109162241873523</v>
       </c>
       <c r="M21" t="n">
-        <v>0.02624989975875453</v>
+        <v>0.0267331735637338</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000194966478101</v>
+        <v>1.000111276641682</v>
       </c>
       <c r="O21" t="n">
-        <v>0.02637114705411397</v>
+        <v>0.026947901298883</v>
       </c>
       <c r="P21" t="n">
-        <v>3532.560372434664</v>
+        <v>3532.487400116858</v>
       </c>
       <c r="Q21" t="n">
-        <v>9485.887187880671</v>
+        <v>8521.50727444451</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_4</t>
+          <t>model_8_5_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9984053250578426</v>
+        <v>0.9985392428433008</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7920008747991679</v>
+        <v>0.7166491141926423</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9971217336398076</v>
+        <v>0.9955086682441178</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9977685992561125</v>
+        <v>0.9941493188943094</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9973857122325278</v>
+        <v>0.994932630340215</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0007931272694479988</v>
+        <v>0.0007176835788978213</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1234772658135762</v>
+        <v>0.1682093259361814</v>
       </c>
       <c r="I22" t="n">
-        <v>0.001632022108756272</v>
+        <v>0.002242196765998065</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0007573855120460145</v>
+        <v>0.002495232330206157</v>
       </c>
       <c r="K22" t="n">
-        <v>0.00119470670159776</v>
+        <v>0.002368714837161247</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01169100012431377</v>
+        <v>0.006088775337622717</v>
       </c>
       <c r="M22" t="n">
-        <v>0.02816251532530429</v>
+        <v>0.0267896169979681</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000224412751263</v>
+        <v>1.000111747028511</v>
       </c>
       <c r="O22" t="n">
-        <v>0.02829259691971393</v>
+        <v>0.02700479810131799</v>
       </c>
       <c r="P22" t="n">
-        <v>3532.279053716199</v>
+        <v>3532.478963567932</v>
       </c>
       <c r="Q22" t="n">
-        <v>9485.605869162207</v>
+        <v>8521.498837895582</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_3</t>
+          <t>model_8_5_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9981445430678537</v>
+        <v>0.9985336697624275</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7914414053424863</v>
+        <v>0.7164699477889109</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9968594504311517</v>
+        <v>0.9954826305541755</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9976613917068244</v>
+        <v>0.9941277061936331</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9971831996170949</v>
+        <v>0.9949088680384608</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0009228297575057547</v>
+        <v>0.0007204216853710705</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1238093910508845</v>
+        <v>0.168315686853022</v>
       </c>
       <c r="I23" t="n">
-        <v>0.001780740796228049</v>
+        <v>0.002255195499415157</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0007937740652160865</v>
+        <v>0.002504449839842434</v>
       </c>
       <c r="K23" t="n">
-        <v>0.00128725320004606</v>
+        <v>0.002379822397988495</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01247924107990985</v>
+        <v>0.006068083389992171</v>
       </c>
       <c r="M23" t="n">
-        <v>0.03037811313274336</v>
+        <v>0.02684067222278664</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000261111643499</v>
+        <v>1.000112173365787</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0305184284897283</v>
+        <v>0.02705626341485146</v>
       </c>
       <c r="P23" t="n">
-        <v>3531.976131570425</v>
+        <v>3532.471347686536</v>
       </c>
       <c r="Q23" t="n">
-        <v>9485.302947016433</v>
+        <v>8521.491222014187</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_2</t>
+          <t>model_8_5_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9978210760896691</v>
+        <v>0.9985287029843619</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7907426706147576</v>
+        <v>0.7163073498985444</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9965262721716731</v>
+        <v>0.9954593648456909</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9975339482265464</v>
+        <v>0.9941092360576862</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9969291646206445</v>
+        <v>0.994888017160904</v>
       </c>
       <c r="G24" t="n">
-        <v>0.001083709241080683</v>
+        <v>0.0007228619096351469</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1242241901690329</v>
+        <v>0.1684122119846067</v>
       </c>
       <c r="I24" t="n">
-        <v>0.001969658087951355</v>
+        <v>0.002266810383186478</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0008370311295653584</v>
+        <v>0.00251232709028992</v>
       </c>
       <c r="K24" t="n">
-        <v>0.001403344977116609</v>
+        <v>0.002389569029150689</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01334067411697218</v>
+        <v>0.006047965520332056</v>
       </c>
       <c r="M24" t="n">
-        <v>0.03291973938354742</v>
+        <v>0.0268860913789109</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000306631964035</v>
+        <v>1.00011255332127</v>
       </c>
       <c r="O24" t="n">
-        <v>0.03307179441617138</v>
+        <v>0.02710204738933534</v>
       </c>
       <c r="P24" t="n">
-        <v>3531.654731279459</v>
+        <v>3532.464584700806</v>
       </c>
       <c r="Q24" t="n">
-        <v>9484.981546725467</v>
+        <v>8521.484459028456</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_1</t>
+          <t>model_8_5_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9974194098750264</v>
+        <v>0.9985242240057139</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7898088264807395</v>
+        <v>0.7161575968585765</v>
       </c>
       <c r="D25" t="n">
-        <v>0.996109403828809</v>
+        <v>0.9954380715800669</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9973678391199776</v>
+        <v>0.9940935934390748</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9966088687118142</v>
+        <v>0.994869510352124</v>
       </c>
       <c r="G25" t="n">
-        <v>0.00128348188416121</v>
+        <v>0.0007250624735078657</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1247785603869521</v>
+        <v>0.1685011118581262</v>
       </c>
       <c r="I25" t="n">
-        <v>0.002206028967799098</v>
+        <v>0.002277440569045472</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0008934121409451838</v>
+        <v>0.002518998444784078</v>
       </c>
       <c r="K25" t="n">
-        <v>0.001549717413056972</v>
+        <v>0.002398219937903914</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01427429559761297</v>
+        <v>0.006028510802687615</v>
       </c>
       <c r="M25" t="n">
-        <v>0.03582571540334135</v>
+        <v>0.02692698411459898</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000363156976082</v>
+        <v>1.000112895960395</v>
       </c>
       <c r="O25" t="n">
-        <v>0.03599119302942348</v>
+        <v>0.02714326858600832</v>
       </c>
       <c r="P25" t="n">
-        <v>3531.316357344315</v>
+        <v>3532.458505472933</v>
       </c>
       <c r="Q25" t="n">
-        <v>9484.643172790324</v>
+        <v>8521.478379800583</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_0</t>
+          <t>model_8_5_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9969206979550914</v>
+        <v>0.9985201824644999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7885483578911082</v>
+        <v>0.7160224810884297</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9955889657295179</v>
+        <v>0.9954190856055822</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9971596914804188</v>
+        <v>0.9940797661151409</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9962086888971456</v>
+        <v>0.9948530625926721</v>
       </c>
       <c r="G26" t="n">
-        <v>0.00153152116341654</v>
+        <v>0.0007270481203003399</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1255268289911652</v>
+        <v>0.1685813224159827</v>
       </c>
       <c r="I26" t="n">
-        <v>0.002501125521762714</v>
+        <v>0.002286918891490295</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0009640619365949532</v>
+        <v>0.002524895601900811</v>
       </c>
       <c r="K26" t="n">
-        <v>0.001732596097024861</v>
+        <v>0.002405908355064577</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01528262292149991</v>
+        <v>0.006010247494962278</v>
       </c>
       <c r="M26" t="n">
-        <v>0.03913465425191003</v>
+        <v>0.02696382985223612</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000433338874024</v>
+        <v>1.000113205135825</v>
       </c>
       <c r="O26" t="n">
-        <v>0.03931541574153396</v>
+        <v>0.02718041027809973</v>
       </c>
       <c r="P26" t="n">
-        <v>3530.962987626073</v>
+        <v>3532.453035784774</v>
       </c>
       <c r="Q26" t="n">
-        <v>9484.289803072081</v>
+        <v>8521.472910112425</v>
       </c>
     </row>
   </sheetData>
